--- a/registros_excel/2024-02-09.xlsx
+++ b/registros_excel/2024-02-09.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,6 +802,51 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10267084</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ruben Lopez</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>15:45:05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>07:40:43</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>15:45:05</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Revisar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
